--- a/LitagramChanges1.xlsx
+++ b/LitagramChanges1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2175" windowWidth="27360" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="2175" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>http://159.203.77.110/litagram/dashboard/profile</t>
   </si>
   <si>
-    <t>Full Name Field Update - Format wrong</t>
-  </si>
-  <si>
     <t>Not able to update name as "Selva". Only "Selva X" is allowed.</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>The Option is not available in Dropzone. Have to figure out something else. Is this mandatory?</t>
+  </si>
+  <si>
+    <t>Full Name Field Update - Format w</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -581,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -598,10 +598,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -612,296 +612,296 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
